--- a/biology/Zoologie/Adelpha_iphiclus/Adelpha_iphiclus.xlsx
+++ b/biology/Zoologie/Adelpha_iphiclus/Adelpha_iphiclus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adelpha iphiclus   est une espèce de papillons de la famille des Nymphalidae, sous famille des Limenitidinae et du genre des Adelpha.
 </t>
@@ -511,15 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelpha iphiclus a été décrit par l'entomologiste suédois Carl von Linné en 1758 sous le protonyme de Papilio  iphiclus[1]. 
-Sous-espèces
-Adelpha iphiclus iphiclus, présent au Mexique, au Venezuela, en Colombie, en Équateur, au Pérou, en Bolivie, au Brésil et au Surinam.
-Adelpha iphiclus ephesa (Ménétriés, 1857); présent en Argentine et au Brésil.
-Adelpha iphiclus estrecha Willmott &amp; Hall, 1999; présent en Équateur
-Nom vernaculaire
-Adelpha iphiclus se nomme iphiclus Sister en anglais[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha iphiclus a été décrit par l'entomologiste suédois Carl von Linné en 1758 sous le protonyme de Papilio  iphiclus. 
 </t>
         </is>
       </c>
@@ -545,16 +553,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adelpha iphiclus est un papillon d'une envergure de 42 mm à 48 mm au dessus marron orné d'une tache orange proche de l'apex des ailes antérieures, d'une bande blanche sur les 2/3 de l'aire discale des ailes antérieures, jusqu'au bord interne et aux ailes postérieures du bord costal à l'angle anal marqué d'une petite tache orange[2],[4].
-Le revers est jaune orangé rayé de blanc avec la même bande blanche que sur le dessus.
-Chenille
-La chenille est verte et orange ou rouge et noire et développe de grandes épines[2].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Adelpha iphiclus iphiclus, présent au Mexique, au Venezuela, en Colombie, en Équateur, au Pérou, en Bolivie, au Brésil et au Surinam.
+Adelpha iphiclus ephesa (Ménétriés, 1857); présent en Argentine et au Brésil.
+Adelpha iphiclus estrecha Willmott &amp; Hall, 1999; présent en Équateur</t>
         </is>
       </c>
     </row>
@@ -579,13 +591,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont Calycophyllum candidissimum, Isertia et Uncaria[1].
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha iphiclus se nomme iphiclus Sister en anglais,.
 </t>
         </is>
       </c>
@@ -611,16 +628,196 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha iphiclus est un papillon d'une envergure de 42 mm à 48 mm au dessus marron orné d'une tache orange proche de l'apex des ailes antérieures, d'une bande blanche sur les 2/3 de l'aire discale des ailes antérieures, jusqu'au bord interne et aux ailes postérieures du bord costal à l'angle anal marqué d'une petite tache orange,.
+Le revers est jaune orangé rayé de blanc avec la même bande blanche que sur le dessus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Adelpha_iphiclus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_iphiclus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est verte et orange ou rouge et noire et développe de grandes épines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Adelpha_iphiclus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_iphiclus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont Calycophyllum candidissimum, Isertia et Uncaria.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Adelpha_iphiclus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_iphiclus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelpha iphiclus est présent au Mexique, au Venezuela, en Colombie, en Équateur, au Pérou, en Bolivie, en Argentine, au Brésil, au Surinam et Guyana et en Guyane[1],[4].
-Biotope
-Adelpha iphiclus réside en forêt jusqu'à 1 200 m[3].
-Protection
-Pas de statut de protection particulier.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha iphiclus est présent au Mexique, au Venezuela, en Colombie, en Équateur, au Pérou, en Bolivie, en Argentine, au Brésil, au Surinam et Guyana et en Guyane,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Adelpha_iphiclus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_iphiclus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha iphiclus réside en forêt jusqu'à 1 200 m.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Adelpha_iphiclus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_iphiclus</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
